--- a/Jogos_do_Dia/2023-03-01_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-01_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -838,28 +838,28 @@
         <v>1.32</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -879,13 +879,13 @@
         <v>67</v>
       </c>
       <c r="F3">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="G3">
         <v>3.2</v>
       </c>
       <c r="H3">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I3">
         <v>1.02</v>
@@ -900,10 +900,10 @@
         <v>3.2</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="N3">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O3">
         <v>1.4</v>
@@ -983,13 +983,13 @@
         <v>68</v>
       </c>
       <c r="F4">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="G4">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="H4">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="I4">
         <v>1.05</v>
@@ -1004,10 +1004,10 @@
         <v>2.84</v>
       </c>
       <c r="M4">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="N4">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="O4">
         <v>1.48</v>
@@ -1046,28 +1046,28 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -1087,13 +1087,13 @@
         <v>69</v>
       </c>
       <c r="F5">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="G5">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H5">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="I5">
         <v>1.08</v>
@@ -1108,7 +1108,7 @@
         <v>2.75</v>
       </c>
       <c r="M5">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="N5">
         <v>1.68</v>
@@ -1191,13 +1191,13 @@
         <v>70</v>
       </c>
       <c r="F6">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="G6">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H6">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I6">
         <v>1.06</v>
@@ -1212,10 +1212,10 @@
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="N6">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="O6">
         <v>1.4</v>
@@ -1254,28 +1254,28 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1358,28 +1358,28 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1399,13 +1399,13 @@
         <v>72</v>
       </c>
       <c r="F8">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="G8">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="H8">
-        <v>4.35</v>
+        <v>3.75</v>
       </c>
       <c r="I8">
         <v>1.05</v>
@@ -1420,10 +1420,10 @@
         <v>3.25</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="N8">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="O8">
         <v>1.4</v>
@@ -1503,52 +1503,52 @@
         <v>73</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V9">
         <v>0.64</v>
@@ -1607,13 +1607,13 @@
         <v>74</v>
       </c>
       <c r="F10">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="G10">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="H10">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="I10">
         <v>1.11</v>
@@ -1628,10 +1628,10 @@
         <v>2.37</v>
       </c>
       <c r="M10">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O10">
         <v>1.52</v>
@@ -1691,7 +1691,7 @@
         <v>3.56</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1711,52 +1711,52 @@
         <v>75</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="V11">
         <v>1.18</v>
@@ -1815,13 +1815,13 @@
         <v>76</v>
       </c>
       <c r="F12">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="G12">
-        <v>3.44</v>
+        <v>3.6</v>
       </c>
       <c r="H12">
-        <v>4.64</v>
+        <v>7</v>
       </c>
       <c r="I12">
         <v>1.06</v>
@@ -1878,28 +1878,28 @@
         <v>2.9</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1919,10 +1919,10 @@
         <v>77</v>
       </c>
       <c r="F13">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G13">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H13">
         <v>2.25</v>
@@ -1940,10 +1940,10 @@
         <v>2.3</v>
       </c>
       <c r="M13">
-        <v>2.65</v>
+        <v>2.73</v>
       </c>
       <c r="N13">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O13">
         <v>1.64</v>
@@ -1982,28 +1982,28 @@
         <v>2.2</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -2023,13 +2023,13 @@
         <v>78</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>3.97</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2127,13 +2127,13 @@
         <v>79</v>
       </c>
       <c r="F15">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="H15">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="I15">
         <v>1.09</v>
@@ -2190,28 +2190,28 @@
         <v>2.93</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2231,13 +2231,13 @@
         <v>80</v>
       </c>
       <c r="F16">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="G16">
-        <v>3.08</v>
+        <v>3.3</v>
       </c>
       <c r="H16">
-        <v>3.27</v>
+        <v>3.7</v>
       </c>
       <c r="I16">
         <v>1.08</v>
@@ -2335,13 +2335,13 @@
         <v>81</v>
       </c>
       <c r="F17">
-        <v>2.64</v>
+        <v>2.1</v>
       </c>
       <c r="G17">
-        <v>2.89</v>
+        <v>3.1</v>
       </c>
       <c r="H17">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="I17">
         <v>1.1</v>
@@ -2439,13 +2439,13 @@
         <v>82</v>
       </c>
       <c r="F18">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="G18">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="I18">
         <v>1.1</v>
@@ -2543,13 +2543,13 @@
         <v>83</v>
       </c>
       <c r="F19">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="G19">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="H19">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="I19">
         <v>1.1</v>
@@ -2647,13 +2647,13 @@
         <v>84</v>
       </c>
       <c r="F20">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="G20">
-        <v>3.12</v>
+        <v>3.2</v>
       </c>
       <c r="H20">
-        <v>3.22</v>
+        <v>3.3</v>
       </c>
       <c r="I20">
         <v>1.07</v>
@@ -2751,13 +2751,13 @@
         <v>85</v>
       </c>
       <c r="F21">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="G21">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="H21">
-        <v>3.09</v>
+        <v>3.3</v>
       </c>
       <c r="I21">
         <v>1.1</v>
@@ -2855,13 +2855,13 @@
         <v>86</v>
       </c>
       <c r="F22">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="G22">
-        <v>3.21</v>
+        <v>3.2</v>
       </c>
       <c r="H22">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="I22">
         <v>1.07</v>
@@ -2876,10 +2876,10 @@
         <v>3</v>
       </c>
       <c r="M22">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="O22">
         <v>1.4</v>
@@ -2959,13 +2959,13 @@
         <v>87</v>
       </c>
       <c r="F23">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="G23">
         <v>5</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I23">
         <v>1.03</v>
@@ -2980,10 +2980,10 @@
         <v>4.1</v>
       </c>
       <c r="M23">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="N23">
-        <v>2.21</v>
+        <v>2</v>
       </c>
       <c r="O23">
         <v>1.3</v>
@@ -3063,13 +3063,13 @@
         <v>88</v>
       </c>
       <c r="F24">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G24">
         <v>4.5</v>
       </c>
       <c r="H24">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I24">
         <v>1.02</v>
@@ -3084,10 +3084,10 @@
         <v>5.4</v>
       </c>
       <c r="M24">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="N24">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="O24">
         <v>1.25</v>
@@ -3176,16 +3176,16 @@
         <v>6.97</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M25">
         <v>1.92</v>
@@ -3194,25 +3194,25 @@
         <v>1.8</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V25">
         <v>1</v>
@@ -3239,19 +3239,19 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -3280,16 +3280,16 @@
         <v>5.12</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M26">
         <v>1.92</v>
@@ -3298,25 +3298,25 @@
         <v>1.8</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V26">
         <v>1</v>

--- a/Jogos_do_Dia/2023-03-01_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-01_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -823,10 +823,10 @@
         <v>1.95</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>67</v>
       </c>
       <c r="F3">
-        <v>2.35</v>
+        <v>2.58</v>
       </c>
       <c r="G3">
-        <v>3.2</v>
+        <v>3.28</v>
       </c>
       <c r="H3">
-        <v>2.8</v>
+        <v>2.61</v>
       </c>
       <c r="I3">
         <v>1.02</v>
@@ -900,10 +900,10 @@
         <v>3.2</v>
       </c>
       <c r="M3">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="O3">
         <v>1.4</v>
@@ -927,7 +927,7 @@
         <v>1.47</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>68</v>
       </c>
       <c r="F4">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G4">
-        <v>3.2</v>
+        <v>2.99</v>
       </c>
       <c r="H4">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="I4">
         <v>1.05</v>
@@ -1004,10 +1004,10 @@
         <v>2.84</v>
       </c>
       <c r="M4">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="N4">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="O4">
         <v>1.48</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1087,13 +1087,13 @@
         <v>69</v>
       </c>
       <c r="F5">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="G5">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H5">
-        <v>2.35</v>
+        <v>2.57</v>
       </c>
       <c r="I5">
         <v>1.08</v>
@@ -1108,10 +1108,10 @@
         <v>2.75</v>
       </c>
       <c r="M5">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="N5">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="O5">
         <v>1.44</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1191,13 +1191,13 @@
         <v>70</v>
       </c>
       <c r="F6">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="G6">
-        <v>3.7</v>
+        <v>3.44</v>
       </c>
       <c r="H6">
-        <v>4.7</v>
+        <v>3.82</v>
       </c>
       <c r="I6">
         <v>1.06</v>
@@ -1239,7 +1239,7 @@
         <v>1.95</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1399,13 +1399,13 @@
         <v>72</v>
       </c>
       <c r="F8">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G8">
-        <v>3.4</v>
+        <v>3.28</v>
       </c>
       <c r="H8">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I8">
         <v>1.05</v>
@@ -1420,10 +1420,10 @@
         <v>3.25</v>
       </c>
       <c r="M8">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="O8">
         <v>1.4</v>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>73</v>
       </c>
       <c r="F9">
-        <v>2.48</v>
+        <v>2.37</v>
       </c>
       <c r="G9">
-        <v>3.13</v>
+        <v>3.08</v>
       </c>
       <c r="H9">
-        <v>2.89</v>
+        <v>2.68</v>
       </c>
       <c r="I9">
         <v>1.05</v>
@@ -1518,16 +1518,16 @@
         <v>7.1</v>
       </c>
       <c r="K9">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="L9">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="M9">
-        <v>2.41</v>
+        <v>2.32</v>
       </c>
       <c r="N9">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="O9">
         <v>1.5</v>
@@ -1566,28 +1566,28 @@
         <v>2.45</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1607,13 +1607,13 @@
         <v>74</v>
       </c>
       <c r="F10">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="G10">
-        <v>2.9</v>
+        <v>2.97</v>
       </c>
       <c r="H10">
-        <v>2.62</v>
+        <v>2.73</v>
       </c>
       <c r="I10">
         <v>1.11</v>
@@ -1622,10 +1622,10 @@
         <v>7</v>
       </c>
       <c r="K10">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="L10">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="M10">
         <v>2.2</v>
@@ -1711,13 +1711,13 @@
         <v>75</v>
       </c>
       <c r="F11">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="G11">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="H11">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="I11">
         <v>1.06</v>
@@ -1732,10 +1732,10 @@
         <v>2.88</v>
       </c>
       <c r="M11">
-        <v>2.24</v>
+        <v>2.15</v>
       </c>
       <c r="N11">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="O11">
         <v>1.5</v>
@@ -1774,25 +1774,25 @@
         <v>3.1</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>76</v>
       </c>
       <c r="F12">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="G12">
-        <v>3.6</v>
+        <v>3.67</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>1.06</v>
@@ -1919,13 +1919,13 @@
         <v>77</v>
       </c>
       <c r="F13">
-        <v>3.6</v>
+        <v>3.56</v>
       </c>
       <c r="G13">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H13">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="I13">
         <v>1.12</v>
@@ -1934,7 +1934,7 @@
         <v>5.5</v>
       </c>
       <c r="K13">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="L13">
         <v>2.3</v>
@@ -2023,13 +2023,13 @@
         <v>78</v>
       </c>
       <c r="F14">
-        <v>7.73</v>
+        <v>3.29</v>
       </c>
       <c r="G14">
-        <v>3.97</v>
+        <v>3.19</v>
       </c>
       <c r="H14">
-        <v>1.38</v>
+        <v>1.99</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="N14">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2127,13 +2127,13 @@
         <v>79</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="G15">
-        <v>2.87</v>
+        <v>2.97</v>
       </c>
       <c r="H15">
-        <v>2.35</v>
+        <v>2.16</v>
       </c>
       <c r="I15">
         <v>1.09</v>
@@ -2231,13 +2231,13 @@
         <v>80</v>
       </c>
       <c r="F16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H16">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I16">
         <v>1.08</v>
@@ -2252,10 +2252,10 @@
         <v>3</v>
       </c>
       <c r="M16">
-        <v>1.85</v>
+        <v>2.17</v>
       </c>
       <c r="N16">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="O16">
         <v>1.44</v>
@@ -2335,13 +2335,13 @@
         <v>81</v>
       </c>
       <c r="F17">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G17">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H17">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>1.1</v>
@@ -2356,10 +2356,10 @@
         <v>2.5</v>
       </c>
       <c r="M17">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N17">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O17">
         <v>1.5</v>
@@ -2442,7 +2442,7 @@
         <v>2.8</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H18">
         <v>2.5</v>
@@ -2460,10 +2460,10 @@
         <v>2.63</v>
       </c>
       <c r="M18">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N18">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O18">
         <v>1.5</v>
@@ -2543,13 +2543,13 @@
         <v>83</v>
       </c>
       <c r="F19">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="G19">
         <v>3.1</v>
       </c>
       <c r="H19">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I19">
         <v>1.1</v>
@@ -2564,10 +2564,10 @@
         <v>2.62</v>
       </c>
       <c r="M19">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N19">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O19">
         <v>1.44</v>
@@ -2647,13 +2647,13 @@
         <v>84</v>
       </c>
       <c r="F20">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="G20">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H20">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I20">
         <v>1.07</v>
@@ -2668,10 +2668,10 @@
         <v>3</v>
       </c>
       <c r="M20">
-        <v>1.91</v>
+        <v>2.17</v>
       </c>
       <c r="N20">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="O20">
         <v>1.4</v>
@@ -2751,13 +2751,13 @@
         <v>85</v>
       </c>
       <c r="F21">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="G21">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H21">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I21">
         <v>1.1</v>
@@ -2772,10 +2772,10 @@
         <v>2.75</v>
       </c>
       <c r="M21">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="N21">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="O21">
         <v>1.44</v>
@@ -2855,13 +2855,13 @@
         <v>86</v>
       </c>
       <c r="F22">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G22">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H22">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="I22">
         <v>1.07</v>
@@ -2876,10 +2876,10 @@
         <v>3</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="N22">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="O22">
         <v>1.4</v>
@@ -2959,13 +2959,13 @@
         <v>87</v>
       </c>
       <c r="F23">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I23">
         <v>1.03</v>
@@ -2983,7 +2983,7 @@
         <v>1.73</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O23">
         <v>1.3</v>
@@ -3063,13 +3063,13 @@
         <v>88</v>
       </c>
       <c r="F24">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="G24">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24">
         <v>1.02</v>
@@ -3084,10 +3084,10 @@
         <v>5.4</v>
       </c>
       <c r="M24">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="N24">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
         <v>1.25</v>
@@ -3334,28 +3334,28 @@
         <v>2.66</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>
